--- a/테이블/테이블 원본/Table_v_1.2.0.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.0.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36B29E4-942E-459F-A71A-0F97FAD0B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D78A366-6337-4033-AA82-762634A97854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="2" r:id="rId1"/>
     <sheet name="char" sheetId="8" r:id="rId2"/>
-    <sheet name="skill" sheetId="9" r:id="rId3"/>
-    <sheet name="Map" sheetId="10" r:id="rId4"/>
-    <sheet name="ITEM_Combination" sheetId="7" r:id="rId5"/>
-    <sheet name="ID" sheetId="11" r:id="rId6"/>
-    <sheet name="설명" sheetId="4" r:id="rId7"/>
-    <sheet name="버전" sheetId="5" r:id="rId8"/>
+    <sheet name="포션" sheetId="12" r:id="rId3"/>
+    <sheet name="skill" sheetId="9" r:id="rId4"/>
+    <sheet name="Map" sheetId="10" r:id="rId5"/>
+    <sheet name="ITEM_Combination" sheetId="7" r:id="rId6"/>
+    <sheet name="ID" sheetId="11" r:id="rId7"/>
+    <sheet name="설명" sheetId="4" r:id="rId8"/>
+    <sheet name="버전" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ITEM">ITEM!$B$2:$AD$70</definedName>
+    <definedName name="ITEM">ITEM!$B$2:$AC$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="268">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,26 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강철 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑요석 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무희의 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암흑 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금강옥의 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Steel Dagger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,186 +296,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만화책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이크 키홀더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 거치대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>머리핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cake Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comic Book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hair Clip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀여운 케이크 모양의 키홀더이다. 휴대폰에 걸면 딱이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰을 올려둘수있는 거치대이다. 침대에도 꽂을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이어폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아주 귀여운 인형이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃무늬가 있는 분홍색 헤어핀이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신형 이어폰이다 귀 착용감이 좋다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earpghne</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 셔츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수첩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만년필 잉크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Shirts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Necklace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 만화책이다. 요즘 학생들 사이에서 인기가 좋다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순백의 셔츠다 어떤 코디와도 잘 어울릴 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은색의 아름다운 목걸이 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바쁜사람들이 애용하는 수첩이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마년필을 즐겨 사용하는 사름들을 위한 잉크다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈슈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 공략집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수면 베게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로회복제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Gaid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleeping Pillow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Drink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손목에 거는 슈슈이다. 완전 인싸템!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 어렵다던 [프로월드]의 게임 공략집이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙면을 취할 수 있는 베게 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피곤한 사람들도 한번 먹으면 바로 부활하는 피로회복제이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음량이 높아지는 아주 좋은 마이크다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행동력 물약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,38 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Abillity Postion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enhance Postion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucy Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collectiong Postion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음날 행동을 한번 더 할 수 있는 물약이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히로인의 능력치가 하루 향상되는 물약이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기한 물건을 채집할 확률이 상승하는 물약이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집해오는 물건의 양이 많아지는 물약이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불의 씨앗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,30 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mester Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown Radar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown Seaked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진실함의 부적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,22 +554,6 @@
   </si>
   <si>
     <t>표현의 부적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Amulet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Amulet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Amulet3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1264,6 +997,75 @@
   </si>
   <si>
     <t xml:space="preserve">낙엽이 바닥에 쌓여있는 숲길. 밤이 되면 어두워져서 꽤 무서워진다. </t>
+  </si>
+  <si>
+    <t>회색빛 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투박한 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울한 무희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛없는 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 껌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐빅 팔찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드러운 옷감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
   </si>
 </sst>
 </file>
@@ -1765,45 +1567,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T61" sqref="T60:T61"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J33:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" customWidth="1"/>
+    <col min="29" max="29" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1811,150 +1612,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>50</v>
+      </c>
+      <c r="L2" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD1" s="7" t="s">
+      <c r="M2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="5" t="e">
+        <f t="shared" ref="N2:N16" si="0">VLOOKUP(M2,ITEM,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="P2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="5" t="e">
+        <f t="shared" ref="Q2:Q16" si="1">VLOOKUP(P2,ITEM,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="11">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
-        <v>1101</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11">
-        <v>50</v>
-      </c>
-      <c r="M2" s="11">
-        <v>2</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2:O16" si="0">VLOOKUP(N2,ITEM,3,FALSE)</f>
-        <v>4001</v>
-      </c>
-      <c r="P2" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" ref="R2:R16" si="1">VLOOKUP(Q2,ITEM,3,FALSE)</f>
-        <v>4016</v>
-      </c>
-      <c r="S2" s="11">
-        <v>5</v>
-      </c>
+      <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -1963,35 +1759,34 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>251</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1002</v>
       </c>
       <c r="D3" s="5">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5">
-        <v>5</v>
+        <v>1102</v>
       </c>
       <c r="G3" s="5">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -1999,30 +1794,28 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
+      <c r="J3" s="11">
+        <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L3" s="11">
-        <v>100</v>
-      </c>
-      <c r="M3" s="11">
         <v>4</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5" t="e">
+      <c r="M3" s="11"/>
+      <c r="N3" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="5" t="e">
+      <c r="Q3" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -2031,64 +1824,61 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>249</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1003</v>
       </c>
       <c r="D4" s="5">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5">
+        <v>1103</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>150</v>
+      </c>
+      <c r="L4" s="11">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
-        <v>1103</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>150</v>
-      </c>
-      <c r="M4" s="11">
-        <v>5</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="5" t="e">
+      <c r="M4" s="11"/>
+      <c r="N4" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="5" t="e">
+      <c r="Q4" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -2097,64 +1887,61 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>253</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1004</v>
       </c>
       <c r="D5" s="5">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
+        <v>1104</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>200</v>
+      </c>
+      <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
-        <v>1104</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>200</v>
-      </c>
-      <c r="M5" s="11">
-        <v>5</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="5" t="e">
+      <c r="M5" s="11"/>
+      <c r="N5" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="5" t="e">
+      <c r="Q5" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -2163,64 +1950,61 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>252</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1005</v>
       </c>
       <c r="D6" s="5">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
+        <v>1105</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>300</v>
+      </c>
+      <c r="L6" s="11">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
-        <v>1105</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11">
-        <v>300</v>
-      </c>
-      <c r="M6" s="11">
-        <v>5</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="5" t="e">
+      <c r="M6" s="11"/>
+      <c r="N6" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="5" t="e">
+      <c r="Q6" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -2229,72 +2013,69 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1006</v>
       </c>
       <c r="D7" s="5">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
+        <v>1106</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>50</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="11">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
-        <v>1106</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>2</v>
-      </c>
-      <c r="L7" s="11">
-        <v>50</v>
-      </c>
-      <c r="M7" s="11">
-        <v>2</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="0"/>
-        <v>4006</v>
-      </c>
-      <c r="P7" s="11">
+      <c r="P7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="11">
         <v>5</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" si="1"/>
-        <v>4016</v>
-      </c>
-      <c r="S7" s="11">
-        <v>5</v>
-      </c>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -2303,35 +2084,34 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1007</v>
       </c>
       <c r="D8" s="5">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>1107</v>
       </c>
       <c r="G8" s="5">
-        <v>1107</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -2339,30 +2119,28 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
+      <c r="J8" s="11">
+        <v>2</v>
       </c>
       <c r="K8" s="11">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L8" s="11">
-        <v>100</v>
-      </c>
-      <c r="M8" s="11">
         <v>4</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="5" t="e">
+      <c r="M8" s="11"/>
+      <c r="N8" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="5" t="e">
+      <c r="Q8" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -2371,64 +2149,61 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1008</v>
       </c>
       <c r="D9" s="5">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="5">
+        <v>1108</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>150</v>
+      </c>
+      <c r="L9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="5">
-        <v>1108</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2</v>
-      </c>
-      <c r="L9" s="11">
-        <v>150</v>
-      </c>
-      <c r="M9" s="11">
-        <v>5</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="5" t="e">
+      <c r="M9" s="11"/>
+      <c r="N9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="5" t="e">
+      <c r="Q9" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -2437,64 +2212,61 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1009</v>
       </c>
       <c r="D10" s="5">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5">
+        <v>1109</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11">
+        <v>200</v>
+      </c>
+      <c r="L10" s="11">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
-        <v>1109</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2</v>
-      </c>
-      <c r="L10" s="11">
-        <v>200</v>
-      </c>
-      <c r="M10" s="11">
-        <v>5</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="5" t="e">
+      <c r="M10" s="11"/>
+      <c r="N10" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5" t="e">
+      <c r="Q10" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -2503,64 +2275,61 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1010</v>
       </c>
       <c r="D11" s="5">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
+        <v>1110</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11">
+        <v>300</v>
+      </c>
+      <c r="L11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
-        <v>1110</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2</v>
-      </c>
-      <c r="L11" s="11">
-        <v>300</v>
-      </c>
-      <c r="M11" s="11">
-        <v>5</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="5" t="e">
+      <c r="M11" s="11"/>
+      <c r="N11" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="5" t="e">
+      <c r="Q11" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -2569,72 +2338,69 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1011</v>
       </c>
       <c r="D12" s="5">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5">
+        <v>1111</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11">
+        <v>50</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
-        <v>1111</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>3</v>
-      </c>
-      <c r="L12" s="11">
-        <v>50</v>
-      </c>
-      <c r="M12" s="11">
-        <v>2</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
-        <v>4011</v>
-      </c>
-      <c r="P12" s="11">
+      <c r="P12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="11">
         <v>5</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R12" s="5">
-        <f t="shared" si="1"/>
-        <v>4016</v>
-      </c>
-      <c r="S12" s="11">
-        <v>5</v>
-      </c>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -2643,35 +2409,34 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1012</v>
       </c>
       <c r="D13" s="5">
-        <v>1012</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1112</v>
       </c>
       <c r="G13" s="5">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -2679,30 +2444,28 @@
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
+      <c r="J13" s="11">
+        <v>3</v>
       </c>
       <c r="K13" s="11">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L13" s="11">
-        <v>100</v>
-      </c>
-      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="5" t="e">
+      <c r="M13" s="11"/>
+      <c r="N13" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="5" t="e">
+      <c r="Q13" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -2711,64 +2474,61 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1013</v>
       </c>
       <c r="D14" s="5">
-        <v>1013</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5">
+        <v>1113</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3</v>
+      </c>
+      <c r="K14" s="11">
+        <v>150</v>
+      </c>
+      <c r="L14" s="11">
         <v>5</v>
       </c>
-      <c r="G14" s="5">
-        <v>1113</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>3</v>
-      </c>
-      <c r="L14" s="11">
-        <v>150</v>
-      </c>
-      <c r="M14" s="11">
-        <v>5</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="5" t="e">
+      <c r="M14" s="11"/>
+      <c r="N14" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="5" t="e">
+      <c r="Q14" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -2777,64 +2537,61 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1014</v>
       </c>
       <c r="D15" s="5">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5">
+        <v>1114</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="11">
+        <v>200</v>
+      </c>
+      <c r="L15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
-        <v>1114</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>3</v>
-      </c>
-      <c r="L15" s="11">
-        <v>200</v>
-      </c>
-      <c r="M15" s="11">
-        <v>5</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="5" t="e">
+      <c r="M15" s="11"/>
+      <c r="N15" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="5" t="e">
+      <c r="Q15" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2843,64 +2600,61 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1015</v>
       </c>
       <c r="D16" s="5">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5">
+        <v>1115</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11">
+        <v>300</v>
+      </c>
+      <c r="L16" s="11">
         <v>5</v>
       </c>
-      <c r="G16" s="5">
-        <v>1115</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>3</v>
-      </c>
-      <c r="L16" s="11">
-        <v>300</v>
-      </c>
-      <c r="M16" s="11">
-        <v>5</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="5" t="e">
+      <c r="M16" s="11"/>
+      <c r="N16" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="5" t="e">
+      <c r="Q16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="S16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -2909,33 +2663,32 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>68</v>
+        <v>254</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2001</v>
       </c>
       <c r="D17" s="5">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5">
-        <v>6</v>
+        <v>2101</v>
       </c>
       <c r="G17" s="5">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -2949,16 +2702,14 @@
       <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="11"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -2967,33 +2718,30 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>255</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2002</v>
       </c>
       <c r="D18" s="5">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5">
-        <v>6</v>
+        <v>2102</v>
       </c>
       <c r="G18" s="5">
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -3007,9 +2755,7 @@
       <c r="K18" s="5">
         <v>0</v>
       </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3027,31 +2773,28 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>256</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2003</v>
       </c>
       <c r="D19" s="5">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5">
-        <v>6</v>
+        <v>2103</v>
       </c>
       <c r="G19" s="5">
-        <v>2103</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -3065,9 +2808,7 @@
       <c r="K19" s="5">
         <v>0</v>
       </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3085,31 +2826,28 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2004</v>
       </c>
       <c r="D20" s="5">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5">
-        <v>6</v>
+        <v>2104</v>
       </c>
       <c r="G20" s="5">
-        <v>2104</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -3123,9 +2861,7 @@
       <c r="K20" s="5">
         <v>0</v>
       </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3143,31 +2879,28 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>258</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2005</v>
       </c>
       <c r="D21" s="5">
-        <v>2005</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="5">
-        <v>6</v>
+        <v>2105</v>
       </c>
       <c r="G21" s="5">
-        <v>2105</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -3181,9 +2914,7 @@
       <c r="K21" s="5">
         <v>0</v>
       </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3201,31 +2932,28 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2006</v>
       </c>
       <c r="D22" s="5">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="5">
-        <v>6</v>
+        <v>2106</v>
       </c>
       <c r="G22" s="5">
-        <v>2106</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -3239,9 +2967,7 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3259,31 +2985,28 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>259</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2007</v>
       </c>
       <c r="D23" s="5">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5">
-        <v>6</v>
+        <v>2107</v>
       </c>
       <c r="G23" s="5">
-        <v>2107</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -3297,9 +3020,7 @@
       <c r="K23" s="5">
         <v>0</v>
       </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -3317,31 +3038,28 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>260</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2008</v>
       </c>
       <c r="D24" s="5">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F24" s="5">
-        <v>6</v>
+        <v>2108</v>
       </c>
       <c r="G24" s="5">
-        <v>2108</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3355,9 +3073,7 @@
       <c r="K24" s="5">
         <v>0</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3375,31 +3091,28 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>261</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2009</v>
       </c>
       <c r="D25" s="5">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F25" s="5">
-        <v>6</v>
+        <v>2109</v>
       </c>
       <c r="G25" s="5">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3413,9 +3126,7 @@
       <c r="K25" s="5">
         <v>0</v>
       </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -3433,31 +3144,28 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>262</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2010</v>
       </c>
       <c r="D26" s="5">
-        <v>2010</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="5">
-        <v>6</v>
+        <v>2110</v>
       </c>
       <c r="G26" s="5">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -3471,9 +3179,7 @@
       <c r="K26" s="5">
         <v>0</v>
       </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -3491,31 +3197,28 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>97</v>
+        <v>263</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2011</v>
       </c>
       <c r="D27" s="5">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5">
-        <v>6</v>
+        <v>2111</v>
       </c>
       <c r="G27" s="5">
-        <v>2111</v>
+        <v>0</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3529,9 +3232,7 @@
       <c r="K27" s="5">
         <v>0</v>
       </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -3549,31 +3250,28 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>264</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2012</v>
       </c>
       <c r="D28" s="5">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="5">
-        <v>6</v>
+        <v>2112</v>
       </c>
       <c r="G28" s="5">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -3587,9 +3285,7 @@
       <c r="K28" s="5">
         <v>0</v>
       </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -3607,31 +3303,28 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>265</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2013</v>
       </c>
       <c r="D29" s="5">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" s="5">
-        <v>6</v>
+        <v>2113</v>
       </c>
       <c r="G29" s="5">
-        <v>2113</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -3645,9 +3338,7 @@
       <c r="K29" s="5">
         <v>0</v>
       </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3665,31 +3356,28 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>266</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2014</v>
       </c>
       <c r="D30" s="5">
-        <v>2014</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5">
-        <v>6</v>
+        <v>2114</v>
       </c>
       <c r="G30" s="5">
-        <v>2114</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -3703,9 +3391,7 @@
       <c r="K30" s="5">
         <v>0</v>
       </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -3723,31 +3409,28 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>267</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2015</v>
       </c>
       <c r="D31" s="5">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F31" s="5">
-        <v>6</v>
+        <v>2115</v>
       </c>
       <c r="G31" s="5">
-        <v>2115</v>
+        <v>0</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -3761,9 +3444,7 @@
       <c r="K31" s="5">
         <v>0</v>
       </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3781,34 +3462,31 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3001</v>
       </c>
       <c r="D32" s="5">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F32" s="5">
-        <v>7</v>
+        <v>3101</v>
       </c>
       <c r="G32" s="5">
-        <v>3101</v>
+        <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -3819,9 +3497,7 @@
       <c r="K32" s="5">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3839,34 +3515,31 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3002</v>
       </c>
       <c r="D33" s="5">
-        <v>3002</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F33" s="5">
-        <v>7</v>
+        <v>3102</v>
       </c>
       <c r="G33" s="5">
-        <v>3102</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="5">
         <v>0</v>
@@ -3877,9 +3550,7 @@
       <c r="K33" s="5">
         <v>0</v>
       </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3897,34 +3568,31 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>114</v>
+        <v>65</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3003</v>
       </c>
       <c r="D34" s="5">
-        <v>3003</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F34" s="5">
-        <v>7</v>
+        <v>3103</v>
       </c>
       <c r="G34" s="5">
-        <v>3103</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
@@ -3935,9 +3603,7 @@
       <c r="K34" s="5">
         <v>0</v>
       </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3955,34 +3621,31 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>115</v>
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3004</v>
       </c>
       <c r="D35" s="5">
-        <v>3004</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F35" s="5">
-        <v>7</v>
+        <v>3104</v>
       </c>
       <c r="G35" s="5">
-        <v>3104</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5">
         <v>0</v>
@@ -3993,9 +3656,7 @@
       <c r="K35" s="5">
         <v>0</v>
       </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
+      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -4013,28 +3674,25 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>126</v>
+        <v>69</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4001</v>
       </c>
       <c r="D36" s="5">
-        <v>4001</v>
+        <v>3</v>
       </c>
       <c r="E36" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -4043,17 +3701,15 @@
         <v>1</v>
       </c>
       <c r="I36" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J36" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
         <v>0</v>
       </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -4070,29 +3726,28 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC36" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4002</v>
       </c>
       <c r="D37" s="5">
-        <v>4002</v>
+        <v>3</v>
       </c>
       <c r="E37" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -4101,17 +3756,15 @@
         <v>1</v>
       </c>
       <c r="I37" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J37" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
         <v>0</v>
       </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
+      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -4128,29 +3781,28 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>127</v>
+        <v>70</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4003</v>
       </c>
       <c r="D38" s="5">
-        <v>4003</v>
+        <v>3</v>
       </c>
       <c r="E38" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -4159,17 +3811,15 @@
         <v>1</v>
       </c>
       <c r="I38" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J38" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K38" s="5">
         <v>0</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -4186,29 +3836,28 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC38" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
+        <v>68</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4004</v>
       </c>
       <c r="D39" s="5">
-        <v>4004</v>
+        <v>3</v>
       </c>
       <c r="E39" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -4217,17 +3866,15 @@
         <v>1</v>
       </c>
       <c r="I39" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J39" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K39" s="5">
         <v>0</v>
       </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -4244,29 +3891,28 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC39" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4005</v>
       </c>
       <c r="D40" s="5">
-        <v>4005</v>
+        <v>3</v>
       </c>
       <c r="E40" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -4275,17 +3921,15 @@
         <v>1</v>
       </c>
       <c r="I40" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J40" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
         <v>0</v>
       </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -4302,26 +3946,25 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC40" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>129</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4006</v>
       </c>
       <c r="D41" s="5">
-        <v>4006</v>
+        <v>3</v>
       </c>
       <c r="E41" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -4333,17 +3976,15 @@
         <v>1</v>
       </c>
       <c r="I41" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J41" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5">
         <v>0</v>
       </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
+      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -4360,26 +4001,25 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC41" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4007</v>
       </c>
       <c r="D42" s="5">
-        <v>4007</v>
+        <v>3</v>
       </c>
       <c r="E42" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -4391,17 +4031,15 @@
         <v>1</v>
       </c>
       <c r="I42" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J42" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5">
         <v>0</v>
       </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -4418,26 +4056,25 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>131</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4008</v>
       </c>
       <c r="D43" s="5">
-        <v>4008</v>
+        <v>3</v>
       </c>
       <c r="E43" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -4449,17 +4086,15 @@
         <v>1</v>
       </c>
       <c r="I43" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J43" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5">
         <v>0</v>
       </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -4476,26 +4111,25 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>132</v>
+        <v>75</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4009</v>
       </c>
       <c r="D44" s="5">
-        <v>4009</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -4507,17 +4141,15 @@
         <v>1</v>
       </c>
       <c r="I44" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J44" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K44" s="5">
         <v>0</v>
       </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -4534,26 +4166,25 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4010</v>
       </c>
       <c r="D45" s="5">
-        <v>4010</v>
+        <v>3</v>
       </c>
       <c r="E45" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -4565,17 +4196,15 @@
         <v>1</v>
       </c>
       <c r="I45" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J45" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K45" s="5">
         <v>0</v>
       </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
+      <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4592,29 +4221,28 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC45" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>145</v>
+        <v>88</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4011</v>
       </c>
       <c r="D46" s="5">
-        <v>4011</v>
+        <v>3</v>
       </c>
       <c r="E46" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -4623,17 +4251,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J46" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K46" s="5">
         <v>0</v>
       </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -4650,29 +4276,28 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>146</v>
+        <v>89</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4012</v>
       </c>
       <c r="D47" s="5">
-        <v>4012</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -4681,17 +4306,15 @@
         <v>1</v>
       </c>
       <c r="I47" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J47" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K47" s="5">
         <v>0</v>
       </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -4708,29 +4331,28 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC47" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>90</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4013</v>
       </c>
       <c r="D48" s="5">
-        <v>4013</v>
+        <v>3</v>
       </c>
       <c r="E48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -4739,17 +4361,15 @@
         <v>1</v>
       </c>
       <c r="I48" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J48" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K48" s="5">
         <v>0</v>
       </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
+      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -4766,29 +4386,28 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>148</v>
+        <v>91</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4014</v>
       </c>
       <c r="D49" s="5">
-        <v>4014</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -4797,17 +4416,15 @@
         <v>1</v>
       </c>
       <c r="I49" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J49" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K49" s="5">
         <v>0</v>
       </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
+      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -4824,29 +4441,28 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC49" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4015</v>
       </c>
       <c r="D50" s="5">
-        <v>4015</v>
+        <v>3</v>
       </c>
       <c r="E50" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -4855,17 +4471,15 @@
         <v>1</v>
       </c>
       <c r="I50" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J50" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K50" s="5">
         <v>0</v>
       </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
+      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -4882,29 +4496,28 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC50" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>155</v>
+        <v>98</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4016</v>
       </c>
       <c r="D51" s="5">
-        <v>4016</v>
+        <v>3</v>
       </c>
       <c r="E51" s="5">
         <v>3</v>
       </c>
       <c r="F51" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -4913,17 +4526,15 @@
         <v>1</v>
       </c>
       <c r="I51" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J51" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K51" s="5">
         <v>0</v>
       </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
+      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -4940,29 +4551,28 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC51" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>156</v>
+        <v>99</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4017</v>
       </c>
       <c r="D52" s="5">
-        <v>4017</v>
+        <v>3</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
       </c>
       <c r="F52" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -4971,17 +4581,15 @@
         <v>1</v>
       </c>
       <c r="I52" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J52" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K52" s="5">
         <v>0</v>
       </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
+      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -4998,29 +4606,28 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC52" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>157</v>
+        <v>100</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4018</v>
       </c>
       <c r="D53" s="5">
-        <v>4018</v>
+        <v>3</v>
       </c>
       <c r="E53" s="5">
         <v>3</v>
       </c>
       <c r="F53" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -5029,17 +4636,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J53" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K53" s="5">
         <v>0</v>
       </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -5056,29 +4661,28 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC53" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>158</v>
+        <v>101</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4019</v>
       </c>
       <c r="D54" s="5">
-        <v>4019</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
       </c>
       <c r="F54" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
@@ -5087,17 +4691,15 @@
         <v>1</v>
       </c>
       <c r="I54" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J54" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K54" s="5">
         <v>0</v>
       </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
+      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -5114,29 +4716,28 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC54" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>159</v>
+        <v>102</v>
+      </c>
+      <c r="C55" s="5">
+        <v>4020</v>
       </c>
       <c r="D55" s="5">
-        <v>4020</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5">
         <v>3</v>
       </c>
       <c r="F55" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -5145,17 +4746,15 @@
         <v>1</v>
       </c>
       <c r="I55" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J55" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K55" s="5">
         <v>0</v>
       </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
+      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -5172,29 +4771,28 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>160</v>
+        <v>103</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4021</v>
       </c>
       <c r="D56" s="5">
-        <v>4021</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -5203,17 +4801,15 @@
         <v>1</v>
       </c>
       <c r="I56" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J56" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5">
         <v>0</v>
       </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
+      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -5230,29 +4826,28 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC56" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>161</v>
+        <v>104</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4022</v>
       </c>
       <c r="D57" s="5">
-        <v>4022</v>
+        <v>3</v>
       </c>
       <c r="E57" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -5261,17 +4856,15 @@
         <v>1</v>
       </c>
       <c r="I57" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J57" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K57" s="5">
         <v>0</v>
       </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -5288,29 +4881,28 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC57" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>162</v>
+        <v>105</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4023</v>
       </c>
       <c r="D58" s="5">
-        <v>4023</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -5319,17 +4911,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J58" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K58" s="5">
         <v>0</v>
       </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
+      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -5346,29 +4936,28 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC58" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>163</v>
+        <v>106</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4024</v>
       </c>
       <c r="D59" s="5">
-        <v>4024</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -5377,17 +4966,15 @@
         <v>1</v>
       </c>
       <c r="I59" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J59" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K59" s="5">
         <v>0</v>
       </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
+      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -5404,29 +4991,28 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC59" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4025</v>
       </c>
       <c r="D60" s="5">
-        <v>4025</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -5435,17 +5021,15 @@
         <v>1</v>
       </c>
       <c r="I60" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J60" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K60" s="5">
         <v>0</v>
       </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -5462,35 +5046,34 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC60" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>180</v>
+        <v>123</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5001</v>
       </c>
       <c r="D61" s="5">
-        <v>5001</v>
+        <v>4</v>
       </c>
       <c r="E61" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F61" s="5">
-        <v>8</v>
+        <v>5101</v>
       </c>
       <c r="G61" s="5">
-        <v>5101</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="5">
         <v>0</v>
@@ -5501,9 +5084,7 @@
       <c r="K61" s="5">
         <v>0</v>
       </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
+      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -5520,35 +5101,34 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC61" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>181</v>
+        <v>124</v>
+      </c>
+      <c r="C62" s="5">
+        <v>5002</v>
       </c>
       <c r="D62" s="5">
-        <v>5002</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="5">
-        <v>8</v>
+        <v>5102</v>
       </c>
       <c r="G62" s="5">
-        <v>5102</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
@@ -5559,9 +5139,7 @@
       <c r="K62" s="5">
         <v>0</v>
       </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
+      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -5578,35 +5156,34 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC62" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>182</v>
+        <v>125</v>
+      </c>
+      <c r="C63" s="5">
+        <v>5003</v>
       </c>
       <c r="D63" s="5">
-        <v>5003</v>
+        <v>4</v>
       </c>
       <c r="E63" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" s="5">
-        <v>8</v>
+        <v>5103</v>
       </c>
       <c r="G63" s="5">
-        <v>5103</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
         <v>0</v>
@@ -5617,9 +5194,7 @@
       <c r="K63" s="5">
         <v>0</v>
       </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -5636,35 +5211,34 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC63" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>183</v>
+        <v>126</v>
+      </c>
+      <c r="C64" s="5">
+        <v>5004</v>
       </c>
       <c r="D64" s="5">
-        <v>5004</v>
+        <v>4</v>
       </c>
       <c r="E64" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F64" s="5">
-        <v>8</v>
+        <v>5104</v>
       </c>
       <c r="G64" s="5">
-        <v>5104</v>
+        <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
@@ -5675,9 +5249,7 @@
       <c r="K64" s="5">
         <v>0</v>
       </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
+      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -5694,35 +5266,34 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC64" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>184</v>
+        <v>127</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5005</v>
       </c>
       <c r="D65" s="5">
-        <v>5005</v>
+        <v>4</v>
       </c>
       <c r="E65" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="5">
-        <v>8</v>
+        <v>5105</v>
       </c>
       <c r="G65" s="5">
-        <v>5105</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
@@ -5733,9 +5304,7 @@
       <c r="K65" s="5">
         <v>0</v>
       </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -5752,35 +5321,34 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC65" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5006</v>
       </c>
       <c r="D66" s="5">
-        <v>5006</v>
+        <v>4</v>
       </c>
       <c r="E66" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F66" s="5">
-        <v>8</v>
+        <v>5106</v>
       </c>
       <c r="G66" s="5">
-        <v>5106</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
@@ -5791,9 +5359,7 @@
       <c r="K66" s="5">
         <v>0</v>
       </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -5810,35 +5376,34 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC66" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>186</v>
+        <v>129</v>
+      </c>
+      <c r="C67" s="5">
+        <v>5007</v>
       </c>
       <c r="D67" s="5">
-        <v>5007</v>
+        <v>4</v>
       </c>
       <c r="E67" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F67" s="5">
-        <v>8</v>
+        <v>5107</v>
       </c>
       <c r="G67" s="5">
-        <v>5107</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5">
         <v>0</v>
@@ -5849,9 +5414,7 @@
       <c r="K67" s="5">
         <v>0</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
+      <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -5868,35 +5431,34 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC67" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>193</v>
+        <v>130</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6001</v>
       </c>
       <c r="D68" s="5">
-        <v>6001</v>
+        <v>5</v>
       </c>
       <c r="E68" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F68" s="5">
-        <v>9</v>
+        <v>6101</v>
       </c>
       <c r="G68" s="5">
-        <v>6101</v>
+        <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5">
         <v>0</v>
@@ -5907,9 +5469,7 @@
       <c r="K68" s="5">
         <v>0</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
+      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -5926,35 +5486,34 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC68" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>194</v>
+        <v>131</v>
+      </c>
+      <c r="C69" s="5">
+        <v>6002</v>
       </c>
       <c r="D69" s="5">
-        <v>6002</v>
+        <v>5</v>
       </c>
       <c r="E69" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F69" s="5">
-        <v>9</v>
+        <v>6102</v>
       </c>
       <c r="G69" s="5">
-        <v>6102</v>
+        <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="5">
         <v>0</v>
@@ -5965,9 +5524,7 @@
       <c r="K69" s="5">
         <v>0</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
+      <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5984,35 +5541,34 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC69" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>195</v>
+        <v>132</v>
+      </c>
+      <c r="C70" s="5">
+        <v>6003</v>
       </c>
       <c r="D70" s="5">
-        <v>6003</v>
+        <v>5</v>
       </c>
       <c r="E70" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F70" s="5">
-        <v>9</v>
+        <v>6102</v>
       </c>
       <c r="G70" s="5">
-        <v>6102</v>
+        <v>1</v>
       </c>
       <c r="H70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
@@ -6023,9 +5579,7 @@
       <c r="K70" s="5">
         <v>0</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
+      <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -6042,9 +5596,8 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5" t="s">
-        <v>144</v>
+      <c r="AC70" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6059,7 +5612,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6072,7 +5625,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6081,31 +5634,31 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="I1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="L1" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
@@ -6116,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -6131,22 +5684,22 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
         <v>5</v>
@@ -6157,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -6172,25 +5725,25 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="M3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -6198,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -6213,30 +5766,30 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="N4" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N5" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6246,11 +5799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B945ACA-7F07-49D0-B693-680406F30C7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D99733-F3B3-43EE-A264-5AE77953B7F9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6265,25 +5833,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -6291,19 +5859,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6314,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -6325,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6337,12 +5905,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D62E413-8562-4B0A-81AC-8B3DB41B990E}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6365,10 +5933,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>5</v>
@@ -6379,17 +5947,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D2" s="5">
         <v>70</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6397,15 +5965,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6413,15 +5981,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6429,15 +5997,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6445,15 +6013,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6461,15 +6029,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6477,15 +6045,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6493,15 +6061,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6509,15 +6077,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,15 +6093,15 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6541,15 +6109,15 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6557,15 +6125,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6574,12 +6142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB2BC90-52C9-4C39-A002-D0270BA555BB}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6613,7 +6181,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -6625,58 +6193,58 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -6684,15 +6252,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11" t="str">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="e">
         <f t="shared" ref="C2:C16" si="0">VLOOKUP(B2,ITEM,2,FALSE)</f>
-        <v>강철 단검</v>
-      </c>
-      <c r="D2" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="11" t="e">
         <f t="shared" ref="D2:D16" si="1">VLOOKUP(B2,ITEM,3,FALSE)</f>
-        <v>1001</v>
+        <v>#N/A</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -6701,18 +6269,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
         <v>5</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="11">
+        <v>113</v>
+      </c>
+      <c r="K2" s="11" t="e">
         <f t="shared" ref="K2:K16" si="2">VLOOKUP(J2,ITEM,3,FALSE)</f>
-        <v>4016</v>
+        <v>#N/A</v>
       </c>
       <c r="L2" s="11">
         <v>5</v>
@@ -6735,15 +6303,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="str">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>흑요석 단검</v>
-      </c>
-      <c r="D3" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1002</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -6779,15 +6347,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11" t="str">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>암흑 단검</v>
-      </c>
-      <c r="D4" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1003</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -6823,15 +6391,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11" t="str">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>금강옥의 단검</v>
-      </c>
-      <c r="D5" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1004</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -6867,15 +6435,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11" t="str">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>무희의 단검</v>
-      </c>
-      <c r="D6" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1005</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -6906,10 +6474,10 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="X6" s="11" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -6917,15 +6485,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="11" t="str">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>강철 카드</v>
-      </c>
-      <c r="D7" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1006</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="11">
         <v>2</v>
@@ -6934,21 +6502,21 @@
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="11">
+        <v>82</v>
+      </c>
+      <c r="H7" s="11" t="e">
         <f t="shared" si="3"/>
-        <v>4006</v>
+        <v>#N/A</v>
       </c>
       <c r="I7" s="11">
         <v>5</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="11">
+        <v>113</v>
+      </c>
+      <c r="K7" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>4016</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="11">
         <v>5</v>
@@ -6966,10 +6534,10 @@
         <v>1</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -6977,15 +6545,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="11" t="str">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>흑요석 카드</v>
-      </c>
-      <c r="D8" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1007</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -7016,10 +6584,10 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="X8" s="11" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -7027,15 +6595,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>빛의 카드</v>
-      </c>
-      <c r="D9" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>#N/A</v>
       </c>
       <c r="E9" s="11">
         <v>2</v>
@@ -7066,10 +6634,10 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="X9" s="11" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -7077,15 +6645,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11" t="str">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>금강옥 카드</v>
-      </c>
-      <c r="D10" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1009</v>
+        <v>#N/A</v>
       </c>
       <c r="E10" s="11">
         <v>2</v>
@@ -7116,10 +6684,10 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="X10" s="11" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -7127,15 +6695,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="str">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>자신감의 카드</v>
-      </c>
-      <c r="D11" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1010</v>
+        <v>#N/A</v>
       </c>
       <c r="E11" s="11">
         <v>2</v>
@@ -7166,10 +6734,10 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="X11" s="11" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -7177,15 +6745,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="11" t="str">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>강철 검</v>
-      </c>
-      <c r="D12" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1011</v>
+        <v>#N/A</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
@@ -7194,21 +6762,21 @@
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="11">
+        <v>108</v>
+      </c>
+      <c r="H12" s="11" t="e">
         <f t="shared" si="3"/>
-        <v>4011</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="11">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="11">
+        <v>113</v>
+      </c>
+      <c r="K12" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>4016</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" s="11">
         <v>5</v>
@@ -7226,10 +6794,10 @@
         <v>1</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -7237,15 +6805,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="str">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>흑요석 검</v>
-      </c>
-      <c r="D13" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1012</v>
+        <v>#N/A</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
@@ -7276,10 +6844,10 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="X13" s="11" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -7287,15 +6855,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="11" t="str">
+        <v>54</v>
+      </c>
+      <c r="C14" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>암흑 검</v>
-      </c>
-      <c r="D14" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1013</v>
+        <v>#N/A</v>
       </c>
       <c r="E14" s="11">
         <v>3</v>
@@ -7326,10 +6894,10 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="X14" s="11" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -7337,15 +6905,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="11" t="str">
+        <v>55</v>
+      </c>
+      <c r="C15" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>금강옥 검</v>
-      </c>
-      <c r="D15" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1014</v>
+        <v>#N/A</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
@@ -7376,10 +6944,10 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="X15" s="11" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -7387,15 +6955,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="11" t="str">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="e">
         <f t="shared" si="0"/>
-        <v>가족의 검</v>
-      </c>
-      <c r="D16" s="11">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="11" t="e">
         <f t="shared" si="1"/>
-        <v>1015</v>
+        <v>#N/A</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
@@ -7426,10 +6994,10 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="X16" s="11" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -7458,114 +7026,114 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="X17" s="11" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X18" s="11" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X19" s="11" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X20" s="11" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X21" s="11" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X22" s="11" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X23" s="11" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X24" s="11" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X25" s="11" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X26" s="11" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X27" s="11" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X28" s="11" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X29" s="11" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="X30" s="11" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3ED1EE-E2C0-4490-B5C0-DC75BE69A3AF}">
   <dimension ref="A1:C76"/>
   <sheetViews>
@@ -7587,13 +7155,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7977,7 +7545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B8:O30"/>
   <sheetViews>
@@ -8006,7 +7574,7 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -8033,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -8059,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -8079,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -8158,15 +7726,15 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="18" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E21" s="19"/>
       <c r="H21" s="15" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -8181,20 +7749,20 @@
         <v>0</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="17" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
@@ -8207,20 +7775,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="D23" s="9">
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="17" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -8233,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -8241,12 +7809,12 @@
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -8257,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -8267,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -8294,7 +7862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2088CD-3606-4FB6-A98E-278F7E269561}">
   <dimension ref="A2:G11"/>
   <sheetViews>
@@ -8309,7 +7877,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8321,15 +7889,15 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8337,23 +7905,23 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="5" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8361,23 +7929,23 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="5" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -8385,26 +7953,26 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -8413,10 +7981,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="5" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
